--- a/electricitylci/data/eGRID_Consumption_Mix_new.xlsx
+++ b/electricitylci/data/eGRID_Consumption_Mix_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="7530" tabRatio="828" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="7530" tabRatio="828" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumptionMixContributionNet" sheetId="21" r:id="rId1"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="779">
   <si>
     <t>NERC region</t>
   </si>
@@ -2694,6 +2694,30 @@
       </rPr>
       <t xml:space="preserve"> - All trades out from eGRID regions combined to create the surplus supply pool total for their respective NERC regions in addition to international trades moving out from Canada and Mexico to the specified NERC regions. Consumption rates are defined by the difference between eGRID generation rates and net trading as in the Net Trading Method but additional demand for trades in from the NERC surplus supply pool are created because of the initial contributions to the supply pools.</t>
     </r>
+  </si>
+  <si>
+    <t>CA-BC</t>
+  </si>
+  <si>
+    <t>CA-AB</t>
+  </si>
+  <si>
+    <t>CA-SK</t>
+  </si>
+  <si>
+    <t>CA-MB</t>
+  </si>
+  <si>
+    <t>CA-ON</t>
+  </si>
+  <si>
+    <t>CA-QC</t>
+  </si>
+  <si>
+    <t>CA-NB</t>
+  </si>
+  <si>
+    <t>MX</t>
   </si>
 </sst>
 </file>
@@ -3377,6 +3401,9 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3413,9 +3440,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4667,21 +4691,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -5961,21 +5985,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -6045,21 +6069,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -6364,21 +6388,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -6643,21 +6667,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -7140,21 +7164,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -9393,21 +9417,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -10019,21 +10043,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -10186,21 +10210,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -16454,21 +16478,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>
@@ -19850,10 +19874,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="146" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="143"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="111"/>
       <c r="D1" s="111"/>
       <c r="E1" s="111"/>
@@ -19972,7 +19996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
@@ -19988,10 +20012,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="135" t="s">
         <v>450</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="135"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
@@ -20050,7 +20074,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="40"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="37" t="s">
         <v>455</v>
@@ -20119,10 +20143,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="136" t="s">
         <v>755</v>
       </c>
-      <c r="C2" s="133"/>
+      <c r="C2" s="136"/>
     </row>
     <row r="3" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
@@ -20340,8 +20364,8 @@
   </sheetPr>
   <dimension ref="A1:AP77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20353,100 +20377,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="132" t="s">
         <v>767</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="106"/>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="137" t="s">
         <v>447</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="137"/>
+      <c r="AG1" s="137"/>
+      <c r="AH1" s="137"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="137"/>
+      <c r="AK1" s="137"/>
+      <c r="AL1" s="137"/>
+      <c r="AM1" s="137"/>
+      <c r="AN1" s="137"/>
+      <c r="AO1" s="137"/>
+      <c r="AP1" s="137"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137" t="s">
         <v>444</v>
       </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="137"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="138" t="s">
         <v>445</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
       <c r="P2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="137" t="s">
         <v>446</v>
       </c>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="134"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="134"/>
-      <c r="AL2" s="134"/>
-      <c r="AM2" s="134"/>
-      <c r="AN2" s="134"/>
-      <c r="AO2" s="134"/>
-      <c r="AP2" s="134"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="137"/>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="137"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="137"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -20470,28 +20494,28 @@
       <c r="G3" s="29"/>
       <c r="H3" s="106"/>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>771</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>772</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>773</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>43</v>
+        <v>775</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>776</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>777</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>51</v>
+        <v>778</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>3</v>
@@ -20710,7 +20734,7 @@
         <v>0.98942293550012295</v>
       </c>
       <c r="F6" s="65">
-        <f>1-E6</f>
+        <f t="shared" ref="F6:F25" si="1">1-E6</f>
         <v>1.0577064499877054E-2</v>
       </c>
       <c r="G6" s="29"/>
@@ -20770,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="65">
-        <f>1-E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="29"/>
@@ -20834,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="65">
-        <f>1-E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="29"/>
@@ -20900,7 +20924,7 @@
         <v>0.96847386627010246</v>
       </c>
       <c r="F9" s="65">
-        <f>1-E9</f>
+        <f t="shared" si="1"/>
         <v>3.1526133729897543E-2</v>
       </c>
       <c r="G9" s="29"/>
@@ -20960,7 +20984,7 @@
         <v>0.96536053329419147</v>
       </c>
       <c r="F10" s="65">
-        <f>1-E10</f>
+        <f t="shared" si="1"/>
         <v>3.463946670580853E-2</v>
       </c>
       <c r="G10" s="29"/>
@@ -21026,7 +21050,7 @@
         <v>0.82997687625982741</v>
       </c>
       <c r="F11" s="65">
-        <f>1-E11</f>
+        <f t="shared" si="1"/>
         <v>0.17002312374017259</v>
       </c>
       <c r="G11" s="29"/>
@@ -21088,7 +21112,7 @@
         <v>0.64950978302617068</v>
       </c>
       <c r="F12" s="65">
-        <f>1-E12</f>
+        <f t="shared" si="1"/>
         <v>0.35049021697382932</v>
       </c>
       <c r="G12" s="29"/>
@@ -21148,7 +21172,7 @@
         <v>0.85502609032650656</v>
       </c>
       <c r="F13" s="65">
-        <f>1-E13</f>
+        <f t="shared" si="1"/>
         <v>0.14497390967349344</v>
       </c>
       <c r="G13" s="29"/>
@@ -21220,7 +21244,7 @@
         <v>0.85502609032650656</v>
       </c>
       <c r="F14" s="65">
-        <f>1-E14</f>
+        <f t="shared" si="1"/>
         <v>0.14497390967349344</v>
       </c>
       <c r="G14" s="29"/>
@@ -21244,7 +21268,7 @@
         <v>0.97967953704898292</v>
       </c>
       <c r="F15" s="65">
-        <f>1-E15</f>
+        <f t="shared" si="1"/>
         <v>2.0320462951017082E-2</v>
       </c>
       <c r="G15" s="29"/>
@@ -21268,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="65">
-        <f>1-E16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="29"/>
@@ -21292,7 +21316,7 @@
         <v>0.98559833688562515</v>
       </c>
       <c r="F17" s="65">
-        <f>1-E17</f>
+        <f t="shared" si="1"/>
         <v>1.4401663114374852E-2</v>
       </c>
       <c r="G17" s="29"/>
@@ -21316,7 +21340,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="65">
-        <f>1-E18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="29"/>
@@ -21340,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="65">
-        <f>1-E19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="29"/>
@@ -21364,7 +21388,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="65">
-        <f>1-E20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="29"/>
@@ -21388,7 +21412,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="65">
-        <f>1-E21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="29"/>
@@ -21412,7 +21436,7 @@
         <v>0.99031843912838846</v>
       </c>
       <c r="F22" s="65">
-        <f>1-E22</f>
+        <f t="shared" si="1"/>
         <v>9.6815608716115387E-3</v>
       </c>
       <c r="G22" s="29"/>
@@ -21436,7 +21460,7 @@
         <v>0.98730462008093378</v>
       </c>
       <c r="F23" s="65">
-        <f>1-E23</f>
+        <f t="shared" si="1"/>
         <v>1.2695379919066219E-2</v>
       </c>
       <c r="G23" s="29"/>
@@ -21460,7 +21484,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="65">
-        <f>1-E24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="29"/>
@@ -21484,7 +21508,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="65">
-        <f>1-E25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="29"/>
@@ -21585,64 +21609,64 @@
       </c>
       <c r="H29" s="29"/>
     </row>
-    <row r="32" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:42" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="132" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="137" t="s">
         <v>443</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137" t="s">
         <v>444</v>
       </c>
-      <c r="F34" s="134"/>
+      <c r="F34" s="137"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="135" t="s">
+      <c r="I34" s="138" t="s">
         <v>445</v>
       </c>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
-      <c r="N34" s="135"/>
-      <c r="O34" s="135"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+      <c r="O34" s="138"/>
       <c r="P34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q34" s="134" t="s">
+      <c r="Q34" s="137" t="s">
         <v>446</v>
       </c>
-      <c r="R34" s="134"/>
-      <c r="S34" s="134"/>
-      <c r="T34" s="134"/>
-      <c r="U34" s="134"/>
-      <c r="V34" s="134"/>
-      <c r="W34" s="134"/>
-      <c r="X34" s="134"/>
-      <c r="Y34" s="134"/>
-      <c r="Z34" s="134"/>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134"/>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="134"/>
-      <c r="AE34" s="134"/>
-      <c r="AF34" s="134"/>
-      <c r="AG34" s="134"/>
-      <c r="AH34" s="134"/>
-      <c r="AI34" s="134"/>
-      <c r="AJ34" s="134"/>
-      <c r="AK34" s="134"/>
-      <c r="AL34" s="134"/>
-      <c r="AM34" s="134"/>
-      <c r="AN34" s="134"/>
-      <c r="AO34" s="134"/>
-      <c r="AP34" s="134"/>
+      <c r="R34" s="137"/>
+      <c r="S34" s="137"/>
+      <c r="T34" s="137"/>
+      <c r="U34" s="137"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="137"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="137"/>
+      <c r="AL34" s="137"/>
+      <c r="AM34" s="137"/>
+      <c r="AN34" s="137"/>
+      <c r="AO34" s="137"/>
+      <c r="AP34" s="137"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
@@ -21666,28 +21690,28 @@
       <c r="G35" s="29"/>
       <c r="H35" s="106"/>
       <c r="I35" s="1" t="s">
-        <v>39</v>
+        <v>771</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>40</v>
+        <v>772</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>41</v>
+        <v>773</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>43</v>
+        <v>775</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>44</v>
+        <v>776</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>45</v>
+        <v>777</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>51</v>
+        <v>778</v>
       </c>
       <c r="Q35" s="17" t="s">
         <v>3</v>
@@ -21786,7 +21810,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="65">
-        <f t="shared" ref="F36:F61" si="1">1-E36</f>
+        <f t="shared" ref="F36:F61" si="2">1-E36</f>
         <v>0</v>
       </c>
       <c r="G36" s="29"/>
@@ -21846,7 +21870,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="29"/>
@@ -21906,7 +21930,7 @@
         <v>0.96592897657566235</v>
       </c>
       <c r="F38" s="65">
-        <f>1-E38</f>
+        <f t="shared" ref="F38:F57" si="3">1-E38</f>
         <v>3.4071023424337654E-2</v>
       </c>
       <c r="G38" s="29"/>
@@ -21966,7 +21990,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="65">
-        <f>1-E39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G39" s="29"/>
@@ -22032,7 +22056,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="65">
-        <f>1-E40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G40" s="29"/>
@@ -22100,7 +22124,7 @@
         <v>0.96847386627010246</v>
       </c>
       <c r="F41" s="65">
-        <f>1-E41</f>
+        <f t="shared" si="3"/>
         <v>3.1526133729897543E-2</v>
       </c>
       <c r="G41" s="29"/>
@@ -22164,7 +22188,7 @@
         <v>0.96492250678672542</v>
       </c>
       <c r="F42" s="65">
-        <f>1-E42</f>
+        <f t="shared" si="3"/>
         <v>3.507749321327458E-2</v>
       </c>
       <c r="G42" s="29"/>
@@ -22194,7 +22218,7 @@
       <c r="AC42" s="78"/>
       <c r="AD42" s="78"/>
       <c r="AE42" s="78"/>
-      <c r="AF42" s="146">
+      <c r="AF42" s="134">
         <v>8.9315403162659637E-2</v>
       </c>
       <c r="AG42" s="78">
@@ -22232,7 +22256,7 @@
         <v>0.81065082642335184</v>
       </c>
       <c r="F43" s="65">
-        <f>1-E43</f>
+        <f t="shared" si="3"/>
         <v>0.18934917357664816</v>
       </c>
       <c r="G43" s="29"/>
@@ -22296,7 +22320,7 @@
         <v>0.64950978302617068</v>
       </c>
       <c r="F44" s="65">
-        <f>1-E44</f>
+        <f t="shared" si="3"/>
         <v>0.35049021697382932</v>
       </c>
       <c r="G44" s="29"/>
@@ -22356,7 +22380,7 @@
         <v>0.85502609032650656</v>
       </c>
       <c r="F45" s="65">
-        <f>1-E45</f>
+        <f t="shared" si="3"/>
         <v>0.14497390967349344</v>
       </c>
       <c r="G45" s="29"/>
@@ -22430,7 +22454,7 @@
         <v>0.85502609032650656</v>
       </c>
       <c r="F46" s="65">
-        <f>1-E46</f>
+        <f t="shared" si="3"/>
         <v>0.14497390967349344</v>
       </c>
       <c r="G46" s="29"/>
@@ -22454,7 +22478,7 @@
         <v>0.62545853657604178</v>
       </c>
       <c r="F47" s="65">
-        <f>1-E47</f>
+        <f t="shared" si="3"/>
         <v>0.37454146342395822</v>
       </c>
       <c r="G47" s="29"/>
@@ -22478,7 +22502,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="65">
-        <f>1-E48</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G48" s="29"/>
@@ -22502,7 +22526,7 @@
         <v>0.86598480623981999</v>
       </c>
       <c r="F49" s="65">
-        <f>1-E49</f>
+        <f t="shared" si="3"/>
         <v>0.13401519376018001</v>
       </c>
       <c r="G49" s="29"/>
@@ -22526,7 +22550,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="65">
-        <f>1-E50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G50" s="29"/>
@@ -22550,7 +22574,7 @@
         <v>0.97508272660566975</v>
       </c>
       <c r="F51" s="65">
-        <f>1-E51</f>
+        <f t="shared" si="3"/>
         <v>2.4917273394330253E-2</v>
       </c>
       <c r="G51" s="29"/>
@@ -22573,7 +22597,7 @@
         <v>0.89617345903586043</v>
       </c>
       <c r="F52" s="65">
-        <f>1-E52</f>
+        <f t="shared" si="3"/>
         <v>0.10382654096413957</v>
       </c>
       <c r="G52" s="29"/>
@@ -22596,7 +22620,7 @@
         <v>0.89744915464454067</v>
       </c>
       <c r="F53" s="65">
-        <f>1-E53</f>
+        <f t="shared" si="3"/>
         <v>0.10255084535545933</v>
       </c>
       <c r="G53" s="29"/>
@@ -22619,7 +22643,7 @@
         <v>0.94885788948191241</v>
       </c>
       <c r="F54" s="65">
-        <f>1-E54</f>
+        <f t="shared" si="3"/>
         <v>5.1142110518087591E-2</v>
       </c>
       <c r="G54" s="29"/>
@@ -22642,7 +22666,7 @@
         <v>0.95533012640969894</v>
       </c>
       <c r="F55" s="65">
-        <f>1-E55</f>
+        <f t="shared" si="3"/>
         <v>4.4669873590301057E-2</v>
       </c>
       <c r="G55" s="29"/>
@@ -22665,7 +22689,7 @@
         <v>0.97434202659071101</v>
       </c>
       <c r="F56" s="65">
-        <f>1-E56</f>
+        <f t="shared" si="3"/>
         <v>2.5657973409288992E-2</v>
       </c>
       <c r="G56" s="29"/>
@@ -22688,7 +22712,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="65">
-        <f>1-E57</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G57" s="29"/>
@@ -22711,7 +22735,7 @@
         <v>0.71513495787020775</v>
       </c>
       <c r="F58" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28486504212979225</v>
       </c>
       <c r="G58" s="29"/>
@@ -22734,7 +22758,7 @@
         <v>0.67347439436775514</v>
       </c>
       <c r="F59" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.32652560563224486</v>
       </c>
       <c r="G59" s="29"/>
@@ -22780,7 +22804,7 @@
         <v>0.96768358233492824</v>
       </c>
       <c r="F61" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2316417665071762E-2</v>
       </c>
     </row>
@@ -22850,6 +22874,8 @@
     <sortCondition ref="C1"/>
   </sortState>
   <mergeCells count="9">
+    <mergeCell ref="I1:AP1"/>
+    <mergeCell ref="Q2:AP2"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="I34:O34"/>
@@ -22857,8 +22883,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I2:O2"/>
-    <mergeCell ref="I1:AP1"/>
-    <mergeCell ref="Q2:AP2"/>
   </mergeCells>
   <conditionalFormatting sqref="H14:H29 G3:G28">
     <cfRule type="colorScale" priority="4">
@@ -22915,7 +22939,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="132" t="s">
         <v>767</v>
       </c>
     </row>
@@ -23263,9 +23287,9 @@
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="26" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="132" t="s">
         <v>768</v>
       </c>
     </row>
@@ -23673,22 +23697,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="140" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="136" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="139" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136" t="s">
+      <c r="F1" s="139"/>
+      <c r="G1" s="139" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="136"/>
+      <c r="H1" s="139"/>
       <c r="I1" s="58" t="s">
         <v>393</v>
       </c>
@@ -23698,26 +23722,26 @@
       </c>
       <c r="L1" s="106"/>
       <c r="M1" s="12"/>
-      <c r="N1" s="136" t="s">
+      <c r="N1" s="139" t="s">
         <v>398</v>
       </c>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136" t="s">
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="139"/>
+      <c r="X1" s="139"/>
+      <c r="Y1" s="139"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="136"/>
+      <c r="AC1" s="139"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -25832,10 +25856,10 @@
       <c r="AA31" s="64"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="136"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="5" t="s">
         <v>373</v>
       </c>
@@ -25904,7 +25928,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="66">
-        <f t="shared" ref="C34:C59" si="5">C4+K4</f>
+        <f t="shared" ref="C35:C59" si="5">C4+K4</f>
         <v>1265808.0379999999</v>
       </c>
       <c r="E35" s="27" t="s">
@@ -26335,12 +26359,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -26489,12 +26513,12 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -26586,21 +26610,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="140" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>477</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="142" t="s">
         <v>478</v>
       </c>
-      <c r="I1" s="139"/>
+      <c r="I1" s="142"/>
       <c r="J1" t="s">
         <v>481</v>
       </c>

--- a/electricitylci/data/eGRID_Consumption_Mix_new.xlsx
+++ b/electricitylci/data/eGRID_Consumption_Mix_new.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC7A6D3-8152-0744-B665-4628B3E480F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="7530" tabRatio="828" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20520" windowHeight="11620" tabRatio="828" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumptionMixContributionNet" sheetId="21" r:id="rId1"/>
@@ -41,22 +42,30 @@
     <definedName name="Flowtypes">[1]Exchanges!#REF!</definedName>
     <definedName name="Level_of_Resolution">'[2]General information'!$C$31:$C$36</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,12 +94,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -119,12 +128,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -225,12 +234,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0" shapeId="0">
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2711,16 +2720,16 @@
     <t>Ontario</t>
   </si>
   <si>
-    <t>Québec</t>
-  </si>
-  <si>
     <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Quebec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -3439,11 +3448,11 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="heading" xfId="5"/>
+    <cellStyle name="heading" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
@@ -3908,21 +3917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -3939,7 +3948,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4159,7 +4168,7 @@
         <v>0.99593306995119679</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4191,7 +4200,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4214,7 +4223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>0.63451829837594353</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -4295,7 +4304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4336,7 +4345,7 @@
         <v>9.6599986587767098E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>0.14497390967349344</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4376,7 +4385,7 @@
         <v>2.0320462951017082E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4416,7 +4425,7 @@
         <v>1.4401663114374852E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4456,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>9.6815608716115387E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4536,7 +4545,7 @@
         <v>1.2695379919066219E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4616,7 +4625,7 @@
         <v>0.28547951542496164</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4662,7 +4671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -4672,21 +4681,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="83">
         <v>186</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>186</v>
       </c>
@@ -4795,7 +4804,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>171</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>186</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>186</v>
       </c>
@@ -4880,7 +4889,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>136</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>140</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>170</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>172</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>248</v>
       </c>
@@ -5022,7 +5031,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>234</v>
       </c>
@@ -5051,7 +5060,7 @@
         <v>24344</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>171</v>
       </c>
@@ -5080,7 +5089,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>234</v>
       </c>
@@ -5106,7 +5115,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>234</v>
       </c>
@@ -5135,7 +5144,7 @@
         <v>103622</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>171</v>
       </c>
@@ -5164,7 +5173,7 @@
         <v>118458</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>172</v>
       </c>
@@ -5193,7 +5202,7 @@
         <v>153094</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>248</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>204856</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>234</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>171</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>354952</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>262</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>668209</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>186</v>
       </c>
@@ -5335,7 +5344,7 @@
         <v>675204</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>186</v>
       </c>
@@ -5364,7 +5373,7 @@
         <v>687151</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>171</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>724642</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>170</v>
       </c>
@@ -5422,7 +5431,7 @@
         <v>726837</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>171</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>912008</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>140</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>971557</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>262</v>
       </c>
@@ -5509,7 +5518,7 @@
         <v>1777708</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>262</v>
       </c>
@@ -5538,7 +5547,7 @@
         <v>1906683</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>234</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v>1944678</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>171</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>2017226</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>186</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>2592367</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>234</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>2812326</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>262</v>
       </c>
@@ -5683,7 +5692,7 @@
         <v>3239215</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>170</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>4089497</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>186</v>
       </c>
@@ -5741,7 +5750,7 @@
         <v>4183218</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>171</v>
       </c>
@@ -5770,7 +5779,7 @@
         <v>4490414</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>234</v>
       </c>
@@ -5799,7 +5808,7 @@
         <v>5113414</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>248</v>
       </c>
@@ -5828,7 +5837,7 @@
         <v>6219074</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>234</v>
       </c>
@@ -5857,7 +5866,7 @@
         <v>6286773</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>248</v>
       </c>
@@ -5886,7 +5895,7 @@
         <v>6870890</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>171</v>
       </c>
@@ -5915,7 +5924,7 @@
         <v>7908616</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>170</v>
       </c>
@@ -5956,7 +5965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -5966,21 +5975,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -6000,7 +6009,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -6040,7 +6049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -6050,21 +6059,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -6084,7 +6093,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -6113,7 +6122,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>272</v>
       </c>
@@ -6142,7 +6151,7 @@
         <v>21890</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>272</v>
       </c>
@@ -6165,7 +6174,7 @@
         <v>53655</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>272</v>
       </c>
@@ -6195,7 +6204,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>272</v>
       </c>
@@ -6224,7 +6233,7 @@
         <v>74940</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>272</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>272</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>272</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>321</v>
       </c>
@@ -6359,7 +6368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -6369,21 +6378,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -6403,7 +6412,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -6432,7 +6441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>185</v>
       </c>
@@ -6455,7 +6464,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>185</v>
       </c>
@@ -6481,7 +6490,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>185</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>211</v>
       </c>
@@ -6540,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>211</v>
       </c>
@@ -6567,7 +6576,7 @@
       </c>
       <c r="K7" s="58"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>211</v>
       </c>
@@ -6600,7 +6609,7 @@
       </c>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>211</v>
       </c>
@@ -6638,7 +6647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -6648,21 +6657,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -6682,7 +6691,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -6711,7 +6720,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>230</v>
       </c>
@@ -6741,7 +6750,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>230</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>230</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>1502276</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>230</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>2301383</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>230</v>
       </c>
@@ -6858,7 +6867,7 @@
         <v>2853340</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>230</v>
       </c>
@@ -6887,7 +6896,7 @@
         <v>3193413</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>230</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>230</v>
       </c>
@@ -6946,7 +6955,7 @@
         <v>6508146</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>230</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>15102572</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>230</v>
       </c>
@@ -7007,7 +7016,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>219</v>
       </c>
@@ -7036,7 +7045,7 @@
         <v>596493</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>219</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>16219093</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>321</v>
       </c>
@@ -7094,7 +7103,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>321</v>
       </c>
@@ -7135,7 +7144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -7145,21 +7154,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -7179,7 +7188,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -7208,7 +7217,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>118</v>
       </c>
@@ -7237,7 +7246,7 @@
         <v>262292</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>161</v>
       </c>
@@ -7266,7 +7275,7 @@
         <v>1016783</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>118</v>
       </c>
@@ -7295,7 +7304,7 @@
         <v>1555404</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>161</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>1897653</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>118</v>
       </c>
@@ -7355,7 +7364,7 @@
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>161</v>
       </c>
@@ -7388,7 +7397,7 @@
       </c>
       <c r="K8" s="88"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>118</v>
       </c>
@@ -7421,7 +7430,7 @@
       </c>
       <c r="K9" s="88"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>118</v>
       </c>
@@ -7454,7 +7463,7 @@
       </c>
       <c r="K10" s="88"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>253</v>
       </c>
@@ -7485,7 +7494,7 @@
       <c r="J11" s="88"/>
       <c r="K11" s="88"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>253</v>
       </c>
@@ -7512,7 +7521,7 @@
       </c>
       <c r="K12" s="88"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>253</v>
       </c>
@@ -7539,7 +7548,7 @@
       </c>
       <c r="K13" s="88"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>253</v>
       </c>
@@ -7566,7 +7575,7 @@
       </c>
       <c r="K14" s="88"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>253</v>
       </c>
@@ -7597,7 +7606,7 @@
       </c>
       <c r="K15" s="88"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>253</v>
       </c>
@@ -7628,7 +7637,7 @@
       <c r="J16" s="88"/>
       <c r="K16" s="88"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>101</v>
       </c>
@@ -7661,7 +7670,7 @@
       </c>
       <c r="K17" s="88"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>253</v>
       </c>
@@ -7692,7 +7701,7 @@
       <c r="J18" s="88"/>
       <c r="K18" s="88"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -7723,7 +7732,7 @@
       <c r="J19" s="88"/>
       <c r="K19" s="88"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>253</v>
       </c>
@@ -7754,7 +7763,7 @@
       <c r="J20" s="88"/>
       <c r="K20" s="88"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>101</v>
       </c>
@@ -7785,7 +7794,7 @@
       <c r="J21" s="88"/>
       <c r="K21" s="88"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>253</v>
       </c>
@@ -7816,7 +7825,7 @@
       <c r="J22" s="88"/>
       <c r="K22" s="88"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>253</v>
       </c>
@@ -7847,7 +7856,7 @@
       <c r="J23" s="88"/>
       <c r="K23" s="88"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>253</v>
       </c>
@@ -7878,7 +7887,7 @@
       <c r="J24" s="88"/>
       <c r="K24" s="88"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>253</v>
       </c>
@@ -7909,7 +7918,7 @@
       <c r="J25" s="88"/>
       <c r="K25" s="88"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>253</v>
       </c>
@@ -7940,7 +7949,7 @@
       <c r="J26" s="88"/>
       <c r="K26" s="88"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>263</v>
       </c>
@@ -7971,7 +7980,7 @@
       <c r="J27" s="88"/>
       <c r="K27" s="88"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>197</v>
       </c>
@@ -8002,7 +8011,7 @@
       <c r="J28" s="88"/>
       <c r="K28" s="88"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>263</v>
       </c>
@@ -8033,7 +8042,7 @@
       <c r="J29" s="88"/>
       <c r="K29" s="88"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>263</v>
       </c>
@@ -8064,7 +8073,7 @@
       <c r="J30" s="88"/>
       <c r="K30" s="88"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>197</v>
       </c>
@@ -8095,7 +8104,7 @@
       <c r="J31" s="88"/>
       <c r="K31" s="88"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>263</v>
       </c>
@@ -8126,7 +8135,7 @@
       <c r="J32" s="88"/>
       <c r="K32" s="88"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>263</v>
       </c>
@@ -8157,7 +8166,7 @@
       <c r="J33" s="88"/>
       <c r="K33" s="88"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>263</v>
       </c>
@@ -8188,7 +8197,7 @@
       <c r="J34" s="88"/>
       <c r="K34" s="88"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>197</v>
       </c>
@@ -8219,7 +8228,7 @@
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>197</v>
       </c>
@@ -8252,7 +8261,7 @@
       </c>
       <c r="K36" s="88"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>263</v>
       </c>
@@ -8283,7 +8292,7 @@
       <c r="J37" s="88"/>
       <c r="K37" s="88"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>197</v>
       </c>
@@ -8314,7 +8323,7 @@
       <c r="J38" s="88"/>
       <c r="K38" s="88"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>263</v>
       </c>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="K39" s="88"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>263</v>
       </c>
@@ -8378,7 +8387,7 @@
       <c r="J40" s="88"/>
       <c r="K40" s="88"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>250</v>
       </c>
@@ -8409,7 +8418,7 @@
       <c r="J41" s="88"/>
       <c r="K41" s="88"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>251</v>
       </c>
@@ -8440,7 +8449,7 @@
       </c>
       <c r="K42" s="88"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>157</v>
       </c>
@@ -8471,7 +8480,7 @@
       <c r="J43" s="88"/>
       <c r="K43" s="88"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>233</v>
       </c>
@@ -8502,7 +8511,7 @@
       <c r="J44" s="88"/>
       <c r="K44" s="88"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>157</v>
       </c>
@@ -8533,7 +8542,7 @@
       <c r="J45" s="88"/>
       <c r="K45" s="88"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>251</v>
       </c>
@@ -8564,7 +8573,7 @@
       <c r="J46" s="88"/>
       <c r="K46" s="88"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>233</v>
       </c>
@@ -8595,7 +8604,7 @@
       <c r="J47" s="88"/>
       <c r="K47" s="88"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>233</v>
       </c>
@@ -8626,7 +8635,7 @@
       <c r="J48" s="88"/>
       <c r="K48" s="88"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>103</v>
       </c>
@@ -8657,7 +8666,7 @@
       <c r="J49" s="88"/>
       <c r="K49" s="88"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>250</v>
       </c>
@@ -8684,7 +8693,7 @@
       </c>
       <c r="K50" s="88"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>157</v>
       </c>
@@ -8715,7 +8724,7 @@
       <c r="J51" s="88"/>
       <c r="K51" s="88"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>157</v>
       </c>
@@ -8742,7 +8751,7 @@
       </c>
       <c r="K52" s="88"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>251</v>
       </c>
@@ -8773,7 +8782,7 @@
       </c>
       <c r="K53" s="88"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>103</v>
       </c>
@@ -8804,7 +8813,7 @@
       <c r="J54" s="88"/>
       <c r="K54" s="88"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>157</v>
       </c>
@@ -8835,7 +8844,7 @@
       <c r="J55" s="88"/>
       <c r="K55" s="88"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>250</v>
       </c>
@@ -8866,7 +8875,7 @@
       <c r="J56" s="88"/>
       <c r="K56" s="88"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>250</v>
       </c>
@@ -8897,7 +8906,7 @@
       <c r="J57" s="88"/>
       <c r="K57" s="88"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>233</v>
       </c>
@@ -8928,7 +8937,7 @@
       <c r="J58" s="88"/>
       <c r="K58" s="88"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>157</v>
       </c>
@@ -8959,7 +8968,7 @@
       <c r="J59" s="88"/>
       <c r="K59" s="88"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>251</v>
       </c>
@@ -8990,7 +8999,7 @@
       <c r="J60" s="88"/>
       <c r="K60" s="88"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>157</v>
       </c>
@@ -9021,7 +9030,7 @@
       <c r="J61" s="88"/>
       <c r="K61" s="88"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>251</v>
       </c>
@@ -9052,7 +9061,7 @@
       <c r="J62" s="88"/>
       <c r="K62" s="88"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>251</v>
       </c>
@@ -9083,7 +9092,7 @@
       <c r="J63" s="88"/>
       <c r="K63" s="88"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>233</v>
       </c>
@@ -9114,7 +9123,7 @@
       <c r="J64" s="88"/>
       <c r="K64" s="88"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>250</v>
       </c>
@@ -9145,7 +9154,7 @@
       <c r="J65" s="88"/>
       <c r="K65" s="88"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>233</v>
       </c>
@@ -9176,7 +9185,7 @@
       </c>
       <c r="K66" s="88"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>157</v>
       </c>
@@ -9207,7 +9216,7 @@
       <c r="J67" s="88"/>
       <c r="K67" s="88"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>321</v>
       </c>
@@ -9240,7 +9249,7 @@
       </c>
       <c r="K68" s="88"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>321</v>
       </c>
@@ -9273,7 +9282,7 @@
       </c>
       <c r="K69" s="88"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>321</v>
       </c>
@@ -9306,7 +9315,7 @@
       </c>
       <c r="K70" s="88"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>321</v>
       </c>
@@ -9339,7 +9348,7 @@
       </c>
       <c r="K71" s="88"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>321</v>
       </c>
@@ -9372,7 +9381,7 @@
       </c>
       <c r="K72" s="88"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J73" s="88"/>
       <c r="K73" s="88"/>
     </row>
@@ -9388,7 +9397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -9398,21 +9407,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -9432,7 +9441,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -9461,7 +9470,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>257</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>257</v>
       </c>
@@ -9519,7 +9528,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>257</v>
       </c>
@@ -9551,7 +9560,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>257</v>
       </c>
@@ -9581,7 +9590,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>257</v>
       </c>
@@ -9607,7 +9616,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>257</v>
       </c>
@@ -9639,7 +9648,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>257</v>
       </c>
@@ -9669,7 +9678,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>257</v>
       </c>
@@ -9698,7 +9707,7 @@
         <v>2271122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>258</v>
       </c>
@@ -9730,7 +9739,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>258</v>
       </c>
@@ -9759,7 +9768,7 @@
         <v>4501235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>258</v>
       </c>
@@ -9791,7 +9800,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>321</v>
       </c>
@@ -9820,7 +9829,7 @@
         <v>28204</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>321</v>
       </c>
@@ -9849,7 +9858,7 @@
         <v>47870</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>321</v>
       </c>
@@ -9878,7 +9887,7 @@
         <v>166974</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>321</v>
       </c>
@@ -9910,7 +9919,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>321</v>
       </c>
@@ -9942,7 +9951,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>321</v>
       </c>
@@ -9974,7 +9983,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>321</v>
       </c>
@@ -10014,7 +10023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -10024,21 +10033,21 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -10058,7 +10067,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -10087,7 +10096,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>165</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>437366</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>165</v>
       </c>
@@ -10142,7 +10151,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>323</v>
       </c>
@@ -10182,7 +10191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -10192,20 +10201,20 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -10225,7 +10234,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -10254,7 +10263,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17">
         <v>236</v>
       </c>
@@ -10283,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17">
         <v>274</v>
       </c>
@@ -10312,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17">
         <v>274</v>
       </c>
@@ -10342,7 +10351,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>266</v>
       </c>
@@ -10371,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>266</v>
       </c>
@@ -10400,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="17">
         <v>236</v>
       </c>
@@ -10429,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17">
         <v>274</v>
       </c>
@@ -10458,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
         <v>266</v>
       </c>
@@ -10487,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="17">
         <v>266</v>
       </c>
@@ -10516,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="17">
         <v>266</v>
       </c>
@@ -10545,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="17">
         <v>274</v>
       </c>
@@ -10574,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>274</v>
       </c>
@@ -10603,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="17">
         <v>244</v>
       </c>
@@ -10632,7 +10641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17">
         <v>266</v>
       </c>
@@ -10661,7 +10670,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="17">
         <v>116</v>
       </c>
@@ -10690,7 +10699,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="17">
         <v>244</v>
       </c>
@@ -10719,7 +10728,7 @@
         <v>8766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>236</v>
       </c>
@@ -10748,7 +10757,7 @@
         <v>9608</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="17">
         <v>244</v>
       </c>
@@ -10777,7 +10786,7 @@
         <v>15610</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>244</v>
       </c>
@@ -10806,7 +10815,7 @@
         <v>20887</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>116</v>
       </c>
@@ -10836,7 +10845,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17">
         <v>210</v>
       </c>
@@ -10865,7 +10874,7 @@
         <v>35039</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
         <v>244</v>
       </c>
@@ -10894,7 +10903,7 @@
         <v>81808</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>116</v>
       </c>
@@ -10923,7 +10932,7 @@
         <v>103422</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="17">
         <v>244</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>165100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="17">
         <v>182</v>
       </c>
@@ -10981,7 +10990,7 @@
         <v>176236</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>244</v>
       </c>
@@ -11010,7 +11019,7 @@
         <v>192176</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <v>116</v>
       </c>
@@ -11039,7 +11048,7 @@
         <v>212771</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>236</v>
       </c>
@@ -11068,7 +11077,7 @@
         <v>277327</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <v>182</v>
       </c>
@@ -11097,7 +11106,7 @@
         <v>329517</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <v>160</v>
       </c>
@@ -11126,7 +11135,7 @@
         <v>476556</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>236</v>
       </c>
@@ -11155,7 +11164,7 @@
         <v>968509</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <v>210</v>
       </c>
@@ -11184,7 +11193,7 @@
         <v>1017492</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <v>153</v>
       </c>
@@ -11213,7 +11222,7 @@
         <v>1130725</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>293</v>
       </c>
@@ -11242,7 +11251,7 @@
         <v>1313145</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <v>244</v>
       </c>
@@ -11271,7 +11280,7 @@
         <v>1380055</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>274</v>
       </c>
@@ -11300,7 +11309,7 @@
         <v>1476779</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="17">
         <v>160</v>
       </c>
@@ -11329,7 +11338,7 @@
         <v>1931347</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>182</v>
       </c>
@@ -11358,7 +11367,7 @@
         <v>1946437</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>236</v>
       </c>
@@ -11387,7 +11396,7 @@
         <v>1964052</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>266</v>
       </c>
@@ -11416,7 +11425,7 @@
         <v>2302049</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>244</v>
       </c>
@@ -11445,7 +11454,7 @@
         <v>2313345</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>315</v>
       </c>
@@ -11474,7 +11483,7 @@
         <v>2419829</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>236</v>
       </c>
@@ -11503,7 +11512,7 @@
         <v>2538362</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>274</v>
       </c>
@@ -11532,7 +11541,7 @@
         <v>2697056</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>116</v>
       </c>
@@ -11561,7 +11570,7 @@
         <v>2847178</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>116</v>
       </c>
@@ -11590,7 +11599,7 @@
         <v>3647334</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>274</v>
       </c>
@@ -11619,7 +11628,7 @@
         <v>4068136</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>154</v>
       </c>
@@ -11648,7 +11657,7 @@
         <v>4398190</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>210</v>
       </c>
@@ -11677,7 +11686,7 @@
         <v>5170025</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>266</v>
       </c>
@@ -11703,7 +11712,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>210</v>
       </c>
@@ -11732,7 +11741,7 @@
         <v>8024941</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>116</v>
       </c>
@@ -11761,7 +11770,7 @@
         <v>8092705</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>274</v>
       </c>
@@ -11790,7 +11799,7 @@
         <v>8257016</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>116</v>
       </c>
@@ -11819,7 +11828,7 @@
         <v>8571542</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>116</v>
       </c>
@@ -11848,7 +11857,7 @@
         <v>10056652</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>244</v>
       </c>
@@ -11877,7 +11886,7 @@
         <v>14418468</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>116</v>
       </c>
@@ -11903,7 +11912,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>116</v>
       </c>
@@ -11932,7 +11941,7 @@
         <v>44989982</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>125</v>
       </c>
@@ -11961,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>125</v>
       </c>
@@ -11990,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>125</v>
       </c>
@@ -12019,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>125</v>
       </c>
@@ -12048,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>243</v>
       </c>
@@ -12077,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>194</v>
       </c>
@@ -12106,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>125</v>
       </c>
@@ -12135,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>125</v>
       </c>
@@ -12164,7 +12173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>125</v>
       </c>
@@ -12193,7 +12202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>125</v>
       </c>
@@ -12219,7 +12228,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>267</v>
       </c>
@@ -12248,7 +12257,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>194</v>
       </c>
@@ -12277,7 +12286,7 @@
         <v>52950</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>194</v>
       </c>
@@ -12306,7 +12315,7 @@
         <v>79327</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>267</v>
       </c>
@@ -12336,7 +12345,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>125</v>
       </c>
@@ -12362,7 +12371,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>243</v>
       </c>
@@ -12388,7 +12397,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>194</v>
       </c>
@@ -12417,7 +12426,7 @@
         <v>295586</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>125</v>
       </c>
@@ -12447,7 +12456,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>125</v>
       </c>
@@ -12476,7 +12485,7 @@
         <v>616011</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>125</v>
       </c>
@@ -12505,7 +12514,7 @@
         <v>706181</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>243</v>
       </c>
@@ -12534,7 +12543,7 @@
         <v>1893447</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>194</v>
       </c>
@@ -12563,7 +12572,7 @@
         <v>9711755</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>194</v>
       </c>
@@ -12592,7 +12601,7 @@
         <v>22378788</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>239</v>
       </c>
@@ -12621,7 +12630,7 @@
         <v>325586</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
         <v>239</v>
       </c>
@@ -12650,7 +12659,7 @@
         <v>251328</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>239</v>
       </c>
@@ -12679,7 +12688,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
         <v>239</v>
       </c>
@@ -12708,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>239</v>
       </c>
@@ -12737,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>237</v>
       </c>
@@ -12766,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
         <v>239</v>
       </c>
@@ -12795,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
         <v>239</v>
       </c>
@@ -12824,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>180</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
         <v>237</v>
       </c>
@@ -12882,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>119</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
         <v>119</v>
       </c>
@@ -12940,7 +12949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>239</v>
       </c>
@@ -12966,7 +12975,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>240</v>
       </c>
@@ -12995,7 +13004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>217</v>
       </c>
@@ -13024,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>239</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
         <v>217</v>
       </c>
@@ -13082,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
         <v>217</v>
       </c>
@@ -13111,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>228</v>
       </c>
@@ -13140,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
         <v>239</v>
       </c>
@@ -13169,7 +13178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>249</v>
       </c>
@@ -13198,7 +13207,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
         <v>228</v>
       </c>
@@ -13227,7 +13236,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
         <v>217</v>
       </c>
@@ -13256,7 +13265,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>122</v>
       </c>
@@ -13285,7 +13294,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
         <v>239</v>
       </c>
@@ -13314,7 +13323,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>249</v>
       </c>
@@ -13343,7 +13352,7 @@
         <v>7483</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
         <v>249</v>
       </c>
@@ -13372,7 +13381,7 @@
         <v>11487</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>239</v>
       </c>
@@ -13401,7 +13410,7 @@
         <v>22079</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
         <v>139</v>
       </c>
@@ -13430,7 +13439,7 @@
         <v>22793</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
         <v>180</v>
       </c>
@@ -13459,7 +13468,7 @@
         <v>26250</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
         <v>237</v>
       </c>
@@ -13488,7 +13497,7 @@
         <v>35078</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>229</v>
       </c>
@@ -13517,7 +13526,7 @@
         <v>35221</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
         <v>122</v>
       </c>
@@ -13546,7 +13555,7 @@
         <v>36785</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>217</v>
       </c>
@@ -13575,7 +13584,7 @@
         <v>38429</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
         <v>239</v>
       </c>
@@ -13604,7 +13613,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
         <v>249</v>
       </c>
@@ -13633,7 +13642,7 @@
         <v>48887</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>122</v>
       </c>
@@ -13662,7 +13671,7 @@
         <v>54015</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>180</v>
       </c>
@@ -13691,7 +13700,7 @@
         <v>67408</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
         <v>122</v>
       </c>
@@ -13720,7 +13729,7 @@
         <v>72661</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -13749,7 +13758,7 @@
         <v>95213</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
         <v>217</v>
       </c>
@@ -13778,7 +13787,7 @@
         <v>101168</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>229</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>112486</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>228</v>
       </c>
@@ -13836,7 +13845,7 @@
         <v>119754</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
         <v>119</v>
       </c>
@@ -13865,7 +13874,7 @@
         <v>129739</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
         <v>249</v>
       </c>
@@ -13894,7 +13903,7 @@
         <v>130368</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
         <v>239</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>137317</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>232</v>
       </c>
@@ -13952,7 +13961,7 @@
         <v>139939</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
         <v>122</v>
       </c>
@@ -13981,7 +13990,7 @@
         <v>146262</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>229</v>
       </c>
@@ -14010,7 +14019,7 @@
         <v>162663</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
         <v>119</v>
       </c>
@@ -14039,7 +14048,7 @@
         <v>163078</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>249</v>
       </c>
@@ -14068,7 +14077,7 @@
         <v>170362</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="13">
         <v>239</v>
       </c>
@@ -14097,7 +14106,7 @@
         <v>173661</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>180</v>
       </c>
@@ -14126,7 +14135,7 @@
         <v>212760</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
         <v>229</v>
       </c>
@@ -14155,7 +14164,7 @@
         <v>215248</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>247</v>
       </c>
@@ -14184,7 +14193,7 @@
         <v>256735</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
         <v>139</v>
       </c>
@@ -14213,7 +14222,7 @@
         <v>256738</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
         <v>232</v>
       </c>
@@ -14242,7 +14251,7 @@
         <v>265111</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>239</v>
       </c>
@@ -14271,7 +14280,7 @@
         <v>314991</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
         <v>232</v>
       </c>
@@ -14300,7 +14309,7 @@
         <v>335198</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
         <v>275</v>
       </c>
@@ -14329,7 +14338,7 @@
         <v>361107</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>229</v>
       </c>
@@ -14358,7 +14367,7 @@
         <v>370216</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
         <v>237</v>
       </c>
@@ -14387,7 +14396,7 @@
         <v>423039</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>240</v>
       </c>
@@ -14416,7 +14425,7 @@
         <v>424408</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
         <v>180</v>
       </c>
@@ -14445,7 +14454,7 @@
         <v>504908</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
         <v>229</v>
       </c>
@@ -14474,7 +14483,7 @@
         <v>505262</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
         <v>119</v>
       </c>
@@ -14503,7 +14512,7 @@
         <v>507988</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
         <v>139</v>
       </c>
@@ -14532,7 +14541,7 @@
         <v>512153</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
         <v>275</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>545174</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="13">
         <v>324</v>
       </c>
@@ -14590,7 +14599,7 @@
         <v>588790</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="13">
         <v>228</v>
       </c>
@@ -14619,7 +14628,7 @@
         <v>636434</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
         <v>238</v>
       </c>
@@ -14648,7 +14657,7 @@
         <v>641510</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
         <v>217</v>
       </c>
@@ -14677,7 +14686,7 @@
         <v>664954</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="13">
         <v>122</v>
       </c>
@@ -14706,7 +14715,7 @@
         <v>667380</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="13">
         <v>217</v>
       </c>
@@ -14729,7 +14738,7 @@
         <v>667450</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="13">
         <v>119</v>
       </c>
@@ -14758,7 +14767,7 @@
         <v>910929</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
         <v>229</v>
       </c>
@@ -14787,7 +14796,7 @@
         <v>992215</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="13">
         <v>119</v>
       </c>
@@ -14816,7 +14825,7 @@
         <v>1004795</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
         <v>240</v>
       </c>
@@ -14845,7 +14854,7 @@
         <v>1057802</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="13">
         <v>239</v>
       </c>
@@ -14874,7 +14883,7 @@
         <v>1143571</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="13">
         <v>275</v>
       </c>
@@ -14903,7 +14912,7 @@
         <v>1212954</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="13">
         <v>240</v>
       </c>
@@ -14932,7 +14941,7 @@
         <v>1244927</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="13">
         <v>229</v>
       </c>
@@ -14961,7 +14970,7 @@
         <v>1367887</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
         <v>237</v>
       </c>
@@ -14990,7 +14999,7 @@
         <v>1513836</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
         <v>217</v>
       </c>
@@ -15019,7 +15028,7 @@
         <v>1580701</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="13">
         <v>247</v>
       </c>
@@ -15048,7 +15057,7 @@
         <v>1591518</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="13">
         <v>119</v>
       </c>
@@ -15077,7 +15086,7 @@
         <v>1592388</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="13">
         <v>232</v>
       </c>
@@ -15106,7 +15115,7 @@
         <v>1926561</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
         <v>228</v>
       </c>
@@ -15135,7 +15144,7 @@
         <v>1939711</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="13">
         <v>232</v>
       </c>
@@ -15164,7 +15173,7 @@
         <v>2024883</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
         <v>228</v>
       </c>
@@ -15193,7 +15202,7 @@
         <v>2074172</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
         <v>228</v>
       </c>
@@ -15222,7 +15231,7 @@
         <v>2280650</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
         <v>122</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>2317554</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="13">
         <v>217</v>
       </c>
@@ -15280,7 +15289,7 @@
         <v>2322732</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
         <v>240</v>
       </c>
@@ -15309,7 +15318,7 @@
         <v>2765983</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
         <v>239</v>
       </c>
@@ -15338,7 +15347,7 @@
         <v>3220586</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="13">
         <v>122</v>
       </c>
@@ -15367,7 +15376,7 @@
         <v>3299087</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="13">
         <v>238</v>
       </c>
@@ -15396,7 +15405,7 @@
         <v>3364742</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
         <v>228</v>
       </c>
@@ -15425,7 +15434,7 @@
         <v>3670382</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="13">
         <v>237</v>
       </c>
@@ -15454,7 +15463,7 @@
         <v>3739797</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
         <v>122</v>
       </c>
@@ -15477,7 +15486,7 @@
         <v>3934588</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
         <v>240</v>
       </c>
@@ -15506,7 +15515,7 @@
         <v>3957613</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
         <v>139</v>
       </c>
@@ -15535,7 +15544,7 @@
         <v>3997396</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
         <v>122</v>
       </c>
@@ -15564,7 +15573,7 @@
         <v>4266726</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
         <v>180</v>
       </c>
@@ -15593,7 +15602,7 @@
         <v>4284215</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
         <v>239</v>
       </c>
@@ -15622,7 +15631,7 @@
         <v>4497103</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
         <v>240</v>
       </c>
@@ -15651,7 +15660,7 @@
         <v>4545635</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
         <v>237</v>
       </c>
@@ -15680,7 +15689,7 @@
         <v>4728758</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
         <v>247</v>
       </c>
@@ -15709,7 +15718,7 @@
         <v>5051395</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
         <v>119</v>
       </c>
@@ -15738,7 +15747,7 @@
         <v>5465689</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
         <v>122</v>
       </c>
@@ -15767,7 +15776,7 @@
         <v>5945051</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
         <v>229</v>
       </c>
@@ -15796,7 +15805,7 @@
         <v>6604450</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
         <v>122</v>
       </c>
@@ -15826,7 +15835,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
         <v>232</v>
       </c>
@@ -15855,7 +15864,7 @@
         <v>7494648</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
         <v>122</v>
       </c>
@@ -15884,7 +15893,7 @@
         <v>10749661</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
         <v>217</v>
       </c>
@@ -15913,7 +15922,7 @@
         <v>10944676</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="13">
         <v>122</v>
       </c>
@@ -15942,7 +15951,7 @@
         <v>13257954</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
         <v>122</v>
       </c>
@@ -15971,7 +15980,7 @@
         <v>15257157</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
         <v>122</v>
       </c>
@@ -16000,7 +16009,7 @@
         <v>15696803</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
         <v>312</v>
       </c>
@@ -16029,7 +16038,7 @@
         <v>770340</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="15">
         <v>273</v>
       </c>
@@ -16058,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="15">
         <v>273</v>
       </c>
@@ -16090,7 +16099,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="15">
         <v>273</v>
       </c>
@@ -16119,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="15">
         <v>273</v>
       </c>
@@ -16148,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="15">
         <v>273</v>
       </c>
@@ -16177,7 +16186,7 @@
         <v>24281</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="15">
         <v>235</v>
       </c>
@@ -16206,7 +16215,7 @@
         <v>31336</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="15">
         <v>273</v>
       </c>
@@ -16235,7 +16244,7 @@
         <v>457661</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="15">
         <v>273</v>
       </c>
@@ -16264,7 +16273,7 @@
         <v>511443</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="15">
         <v>235</v>
       </c>
@@ -16293,7 +16302,7 @@
         <v>1089974</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="15">
         <v>273</v>
       </c>
@@ -16322,7 +16331,7 @@
         <v>2180194</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="15">
         <v>273</v>
       </c>
@@ -16351,7 +16360,7 @@
         <v>2541993</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="15">
         <v>273</v>
       </c>
@@ -16380,7 +16389,7 @@
         <v>3798691</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="15">
         <v>235</v>
       </c>
@@ -16409,7 +16418,7 @@
         <v>3856302</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="15">
         <v>273</v>
       </c>
@@ -16450,7 +16459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -16460,20 +16469,20 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -16493,7 +16502,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -16522,7 +16531,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>321</v>
       </c>
@@ -16548,7 +16557,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>321</v>
       </c>
@@ -16574,7 +16583,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>321</v>
       </c>
@@ -16600,7 +16609,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>321</v>
       </c>
@@ -16623,7 +16632,7 @@
         <v>190265</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>321</v>
       </c>
@@ -16649,7 +16658,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>321</v>
       </c>
@@ -16675,7 +16684,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>321</v>
       </c>
@@ -16701,12 +16710,12 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>321</v>
       </c>
@@ -16718,17 +16727,17 @@
       </c>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -16745,21 +16754,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -16776,7 +16785,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -16898,7 +16907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -16921,7 +16930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -16944,7 +16953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -16967,7 +16976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -16999,7 +17008,7 @@
         <v>0.14586565837639154</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -17034,7 +17043,7 @@
         <v>0.61542134160897588</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -17063,7 +17072,7 @@
         <v>0.3926780696208016</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -17098,7 +17107,7 @@
         <v>0.12602657040073065</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -17127,7 +17136,7 @@
         <v>0.78744239323321152</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -17150,7 +17159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -17194,7 +17203,7 @@
         <v>7.8570083786213565E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -17214,7 +17223,7 @@
         <v>0.14497390967349344</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -17234,7 +17243,7 @@
         <v>0.37454146342395822</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -17254,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -17274,7 +17283,7 @@
         <v>0.13401519376018001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -17294,7 +17303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -17314,7 +17323,7 @@
         <v>2.4917273394330253E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -17334,7 +17343,7 @@
         <v>0.10382654096413957</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -17354,7 +17363,7 @@
         <v>0.10255084535545933</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -17374,7 +17383,7 @@
         <v>5.1142110518087591E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -17394,7 +17403,7 @@
         <v>4.4669873590301057E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -17414,7 +17423,7 @@
         <v>2.5657973409288992E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -17434,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -17454,7 +17463,7 @@
         <v>0.28486504212979225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -17474,7 +17483,7 @@
         <v>0.32652560563224486</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -17494,7 +17503,7 @@
         <v>1.3943960030252001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -17520,7 +17529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -17528,14 +17537,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>56</v>
       </c>
@@ -17546,7 +17555,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <v>101</v>
       </c>
@@ -17557,7 +17566,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>102</v>
       </c>
@@ -17568,7 +17577,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>103</v>
       </c>
@@ -17579,7 +17588,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>104</v>
       </c>
@@ -17590,7 +17599,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>105</v>
       </c>
@@ -17601,7 +17610,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>106</v>
       </c>
@@ -17612,7 +17621,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>107</v>
       </c>
@@ -17623,7 +17632,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>108</v>
       </c>
@@ -17634,7 +17643,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>109</v>
       </c>
@@ -17645,7 +17654,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>110</v>
       </c>
@@ -17656,7 +17665,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>111</v>
       </c>
@@ -17667,7 +17676,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>112</v>
       </c>
@@ -17678,7 +17687,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>113</v>
       </c>
@@ -17689,7 +17698,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>114</v>
       </c>
@@ -17700,7 +17709,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>115</v>
       </c>
@@ -17711,7 +17720,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>116</v>
       </c>
@@ -17722,7 +17731,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>118</v>
       </c>
@@ -17733,7 +17742,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>119</v>
       </c>
@@ -17744,7 +17753,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>120</v>
       </c>
@@ -17755,7 +17764,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>121</v>
       </c>
@@ -17766,7 +17775,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>122</v>
       </c>
@@ -17777,7 +17786,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>123</v>
       </c>
@@ -17788,7 +17797,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>124</v>
       </c>
@@ -17799,7 +17808,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>125</v>
       </c>
@@ -17810,7 +17819,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>126</v>
       </c>
@@ -17821,7 +17830,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>128</v>
       </c>
@@ -17832,7 +17841,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>133</v>
       </c>
@@ -17843,7 +17852,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>134</v>
       </c>
@@ -17854,7 +17863,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>135</v>
       </c>
@@ -17865,7 +17874,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>136</v>
       </c>
@@ -17876,7 +17885,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>137</v>
       </c>
@@ -17887,7 +17896,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>138</v>
       </c>
@@ -17898,7 +17907,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>139</v>
       </c>
@@ -17909,7 +17918,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
         <v>140</v>
       </c>
@@ -17920,7 +17929,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
         <v>141</v>
       </c>
@@ -17931,7 +17940,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>142</v>
       </c>
@@ -17942,7 +17951,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>143</v>
       </c>
@@ -17953,7 +17962,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>144</v>
       </c>
@@ -17964,7 +17973,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>145</v>
       </c>
@@ -17975,7 +17984,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>146</v>
       </c>
@@ -17986,7 +17995,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>147</v>
       </c>
@@ -17997,7 +18006,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>148</v>
       </c>
@@ -18008,7 +18017,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>149</v>
       </c>
@@ -18019,7 +18028,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
         <v>150</v>
       </c>
@@ -18030,7 +18039,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
         <v>151</v>
       </c>
@@ -18041,7 +18050,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>152</v>
       </c>
@@ -18052,7 +18061,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>153</v>
       </c>
@@ -18063,7 +18072,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
         <v>154</v>
       </c>
@@ -18074,7 +18083,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
         <v>155</v>
       </c>
@@ -18085,7 +18094,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>156</v>
       </c>
@@ -18096,7 +18105,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
         <v>157</v>
       </c>
@@ -18107,7 +18116,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
         <v>159</v>
       </c>
@@ -18118,7 +18127,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
         <v>160</v>
       </c>
@@ -18129,7 +18138,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
         <v>161</v>
       </c>
@@ -18140,7 +18149,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
         <v>162</v>
       </c>
@@ -18151,7 +18160,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
         <v>163</v>
       </c>
@@ -18162,7 +18171,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
         <v>164</v>
       </c>
@@ -18173,7 +18182,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
         <v>165</v>
       </c>
@@ -18184,7 +18193,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
         <v>166</v>
       </c>
@@ -18195,7 +18204,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
         <v>167</v>
       </c>
@@ -18206,7 +18215,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
         <v>169</v>
       </c>
@@ -18217,7 +18226,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
         <v>170</v>
       </c>
@@ -18228,7 +18237,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
         <v>171</v>
       </c>
@@ -18239,7 +18248,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
         <v>172</v>
       </c>
@@ -18250,7 +18259,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
         <v>173</v>
       </c>
@@ -18261,7 +18270,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
         <v>174</v>
       </c>
@@ -18272,7 +18281,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
         <v>175</v>
       </c>
@@ -18283,7 +18292,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
         <v>176</v>
       </c>
@@ -18294,7 +18303,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
         <v>177</v>
       </c>
@@ -18305,7 +18314,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>178</v>
       </c>
@@ -18316,7 +18325,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
         <v>179</v>
       </c>
@@ -18327,7 +18336,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
         <v>180</v>
       </c>
@@ -18338,7 +18347,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
         <v>182</v>
       </c>
@@ -18349,7 +18358,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
         <v>183</v>
       </c>
@@ -18360,7 +18369,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
         <v>184</v>
       </c>
@@ -18371,7 +18380,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
         <v>185</v>
       </c>
@@ -18382,7 +18391,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
         <v>186</v>
       </c>
@@ -18393,7 +18402,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
         <v>187</v>
       </c>
@@ -18404,7 +18413,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
         <v>188</v>
       </c>
@@ -18415,7 +18424,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
         <v>189</v>
       </c>
@@ -18426,7 +18435,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
         <v>190</v>
       </c>
@@ -18437,7 +18446,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
         <v>191</v>
       </c>
@@ -18448,7 +18457,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
         <v>193</v>
       </c>
@@ -18459,7 +18468,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
         <v>194</v>
       </c>
@@ -18470,7 +18479,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
         <v>195</v>
       </c>
@@ -18481,7 +18490,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
         <v>196</v>
       </c>
@@ -18492,7 +18501,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
         <v>197</v>
       </c>
@@ -18503,7 +18512,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
         <v>198</v>
       </c>
@@ -18514,7 +18523,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
         <v>199</v>
       </c>
@@ -18525,7 +18534,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
         <v>200</v>
       </c>
@@ -18536,7 +18545,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
         <v>201</v>
       </c>
@@ -18547,7 +18556,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
         <v>202</v>
       </c>
@@ -18558,7 +18567,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
         <v>203</v>
       </c>
@@ -18569,7 +18578,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
         <v>204</v>
       </c>
@@ -18580,7 +18589,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
         <v>206</v>
       </c>
@@ -18591,7 +18600,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
         <v>207</v>
       </c>
@@ -18602,7 +18611,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
         <v>208</v>
       </c>
@@ -18613,7 +18622,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
         <v>209</v>
       </c>
@@ -18624,7 +18633,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
         <v>210</v>
       </c>
@@ -18635,7 +18644,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
         <v>211</v>
       </c>
@@ -18646,7 +18655,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
         <v>212</v>
       </c>
@@ -18657,7 +18666,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
         <v>213</v>
       </c>
@@ -18668,7 +18677,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
         <v>214</v>
       </c>
@@ -18679,7 +18688,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
         <v>215</v>
       </c>
@@ -18690,7 +18699,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
         <v>216</v>
       </c>
@@ -18701,7 +18710,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
         <v>217</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
         <v>218</v>
       </c>
@@ -18723,7 +18732,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
         <v>219</v>
       </c>
@@ -18734,7 +18743,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
         <v>220</v>
       </c>
@@ -18745,7 +18754,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
         <v>221</v>
       </c>
@@ -18756,7 +18765,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
         <v>222</v>
       </c>
@@ -18767,7 +18776,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>223</v>
       </c>
@@ -18778,7 +18787,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>224</v>
       </c>
@@ -18789,7 +18798,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>225</v>
       </c>
@@ -18800,7 +18809,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>226</v>
       </c>
@@ -18811,7 +18820,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>227</v>
       </c>
@@ -18822,7 +18831,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>228</v>
       </c>
@@ -18833,7 +18842,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>229</v>
       </c>
@@ -18844,7 +18853,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>230</v>
       </c>
@@ -18855,7 +18864,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>231</v>
       </c>
@@ -18866,7 +18875,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>232</v>
       </c>
@@ -18877,7 +18886,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>233</v>
       </c>
@@ -18888,7 +18897,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>234</v>
       </c>
@@ -18899,7 +18908,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>235</v>
       </c>
@@ -18910,7 +18919,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>236</v>
       </c>
@@ -18921,7 +18930,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>237</v>
       </c>
@@ -18932,7 +18941,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>238</v>
       </c>
@@ -18943,7 +18952,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
         <v>239</v>
       </c>
@@ -18954,7 +18963,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
         <v>240</v>
       </c>
@@ -18965,7 +18974,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
         <v>241</v>
       </c>
@@ -18976,7 +18985,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
         <v>242</v>
       </c>
@@ -18987,7 +18996,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
         <v>243</v>
       </c>
@@ -18998,7 +19007,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
         <v>244</v>
       </c>
@@ -19009,7 +19018,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
         <v>245</v>
       </c>
@@ -19020,7 +19029,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
         <v>246</v>
       </c>
@@ -19031,7 +19040,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
         <v>247</v>
       </c>
@@ -19042,7 +19051,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
         <v>248</v>
       </c>
@@ -19053,7 +19062,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
         <v>249</v>
       </c>
@@ -19064,7 +19073,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
         <v>250</v>
       </c>
@@ -19075,7 +19084,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
         <v>251</v>
       </c>
@@ -19086,7 +19095,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
         <v>252</v>
       </c>
@@ -19097,7 +19106,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
         <v>253</v>
       </c>
@@ -19108,7 +19117,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
         <v>254</v>
       </c>
@@ -19119,7 +19128,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
         <v>255</v>
       </c>
@@ -19130,7 +19139,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
         <v>256</v>
       </c>
@@ -19141,7 +19150,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
         <v>257</v>
       </c>
@@ -19152,7 +19161,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
         <v>258</v>
       </c>
@@ -19163,7 +19172,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
         <v>259</v>
       </c>
@@ -19174,7 +19183,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
         <v>260</v>
       </c>
@@ -19185,7 +19194,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
         <v>261</v>
       </c>
@@ -19196,7 +19205,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
         <v>262</v>
       </c>
@@ -19207,7 +19216,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
         <v>263</v>
       </c>
@@ -19218,7 +19227,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
         <v>264</v>
       </c>
@@ -19229,7 +19238,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
         <v>265</v>
       </c>
@@ -19240,7 +19249,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
         <v>266</v>
       </c>
@@ -19251,7 +19260,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
         <v>267</v>
       </c>
@@ -19262,7 +19271,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
         <v>268</v>
       </c>
@@ -19273,7 +19282,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
         <v>269</v>
       </c>
@@ -19284,7 +19293,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
         <v>271</v>
       </c>
@@ -19295,7 +19304,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
         <v>272</v>
       </c>
@@ -19306,7 +19315,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
         <v>273</v>
       </c>
@@ -19317,7 +19326,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
         <v>274</v>
       </c>
@@ -19328,7 +19337,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
         <v>275</v>
       </c>
@@ -19339,7 +19348,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
         <v>277</v>
       </c>
@@ -19350,7 +19359,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
         <v>278</v>
       </c>
@@ -19361,7 +19370,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
         <v>279</v>
       </c>
@@ -19372,7 +19381,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
         <v>280</v>
       </c>
@@ -19383,7 +19392,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
         <v>281</v>
       </c>
@@ -19394,7 +19403,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
         <v>282</v>
       </c>
@@ -19405,7 +19414,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
         <v>283</v>
       </c>
@@ -19416,7 +19425,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
         <v>284</v>
       </c>
@@ -19427,7 +19436,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
         <v>285</v>
       </c>
@@ -19438,7 +19447,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
         <v>286</v>
       </c>
@@ -19449,7 +19458,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
         <v>287</v>
       </c>
@@ -19460,7 +19469,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
         <v>288</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
         <v>289</v>
       </c>
@@ -19482,7 +19491,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
         <v>290</v>
       </c>
@@ -19493,7 +19502,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
         <v>291</v>
       </c>
@@ -19504,7 +19513,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
         <v>292</v>
       </c>
@@ -19515,7 +19524,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
         <v>293</v>
       </c>
@@ -19526,7 +19535,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
         <v>294</v>
       </c>
@@ -19537,7 +19546,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
         <v>295</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
         <v>296</v>
       </c>
@@ -19557,7 +19566,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
         <v>297</v>
       </c>
@@ -19568,7 +19577,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
         <v>298</v>
       </c>
@@ -19579,7 +19588,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
         <v>299</v>
       </c>
@@ -19590,7 +19599,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
         <v>300</v>
       </c>
@@ -19601,7 +19610,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
         <v>301</v>
       </c>
@@ -19610,7 +19619,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
         <v>302</v>
       </c>
@@ -19619,7 +19628,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
         <v>303</v>
       </c>
@@ -19628,7 +19637,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
         <v>304</v>
       </c>
@@ -19637,7 +19646,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
         <v>305</v>
       </c>
@@ -19646,7 +19655,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
         <v>306</v>
       </c>
@@ -19655,7 +19664,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
         <v>307</v>
       </c>
@@ -19664,7 +19673,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
         <v>308</v>
       </c>
@@ -19675,7 +19684,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
         <v>309</v>
       </c>
@@ -19684,7 +19693,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
         <v>310</v>
       </c>
@@ -19695,7 +19704,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
         <v>311</v>
       </c>
@@ -19706,7 +19715,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
         <v>312</v>
       </c>
@@ -19715,7 +19724,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
         <v>313</v>
       </c>
@@ -19726,7 +19735,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
         <v>315</v>
       </c>
@@ -19737,7 +19746,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
         <v>319</v>
       </c>
@@ -19746,7 +19755,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
         <v>320</v>
       </c>
@@ -19757,7 +19766,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
         <v>321</v>
       </c>
@@ -19768,7 +19777,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
         <v>322</v>
       </c>
@@ -19779,7 +19788,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
         <v>323</v>
       </c>
@@ -19788,7 +19797,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
         <v>324</v>
       </c>
@@ -19799,7 +19808,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
         <v>325</v>
       </c>
@@ -19810,7 +19819,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
         <v>326</v>
       </c>
@@ -19821,7 +19830,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
         <v>327</v>
       </c>
@@ -19832,7 +19841,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
         <v>328</v>
       </c>
@@ -19849,7 +19858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -19859,17 +19868,17 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="8.5"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
         <v>460</v>
       </c>
@@ -19880,7 +19889,7 @@
       <c r="F1" s="110"/>
       <c r="G1" s="110"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="111"/>
       <c r="B2" s="112" t="s">
         <v>450</v>
@@ -19893,7 +19902,7 @@
       <c r="F2" s="112"/>
       <c r="G2" s="112"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
         <v>740</v>
       </c>
@@ -19916,7 +19925,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="114">
         <v>1</v>
       </c>
@@ -19937,7 +19946,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="99" x14ac:dyDescent="0.2">
       <c r="A5" s="114">
         <v>2</v>
       </c>
@@ -19954,7 +19963,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="114">
         <v>3</v>
       </c>
@@ -19980,40 +19989,40 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://www.nrcan.gc.ca/sites/www.nrcan.gc.ca/files/www/pdf/publications/emmc/15-0137%20EMMC-After%20the%20Blackout-e.pdf"/>
-    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://www.nrcan.gc.ca/sites/www.nrcan.gc.ca/files/www/pdf/publications/emmc/15-0137%20EMMC-After%20the%20Blackout-e.pdf" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-1400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="78.85546875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="34"/>
-    <col min="6" max="7" width="8.42578125" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="8.42578125" style="34"/>
+    <col min="1" max="1" width="9.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="78.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="34"/>
+    <col min="6" max="7" width="8.5" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="8.5" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.2">
       <c r="B2" s="134" t="s">
         <v>450</v>
       </c>
       <c r="C2" s="134"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="35"/>
       <c r="B3" s="36" t="s">
         <v>451</v>
@@ -20029,7 +20038,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
     </row>
-    <row r="4" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36" t="s">
         <v>452</v>
@@ -20038,7 +20047,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="35"/>
       <c r="B5" s="36" t="s">
         <v>453</v>
@@ -20047,7 +20056,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="36" t="s">
         <v>454</v>
@@ -20056,7 +20065,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="289" x14ac:dyDescent="0.2">
       <c r="A7" s="38"/>
       <c r="B7" s="36" t="s">
         <v>769</v>
@@ -20065,12 +20074,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="36"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="36" t="s">
         <v>455</v>
@@ -20079,7 +20088,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="38"/>
       <c r="B10" s="36" t="s">
         <v>456</v>
@@ -20088,23 +20097,23 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="38"/>
       <c r="B11" s="41" t="s">
         <v>457</v>
       </c>
       <c r="C11" s="42"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="44"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
     </row>
@@ -20113,7 +20122,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C12">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -20123,22 +20132,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="45"/>
-    <col min="2" max="2" width="22.7109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="100.42578125" style="45" customWidth="1"/>
-    <col min="4" max="16384" width="9.85546875" style="45"/>
+    <col min="1" max="1" width="9.83203125" style="45"/>
+    <col min="2" max="2" width="22.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="100.5" style="45" customWidth="1"/>
+    <col min="4" max="16384" width="9.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.4">
       <c r="B2" s="135" t="s">
         <v>755</v>
       </c>
@@ -20149,7 +20158,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
         <v>500</v>
       </c>
@@ -20163,7 +20172,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="s">
         <v>501</v>
       </c>
@@ -20177,7 +20186,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="64" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
         <v>505</v>
       </c>
@@ -20185,7 +20194,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>506</v>
       </c>
@@ -20197,14 +20206,14 @@
       <c r="B10" s="50"/>
       <c r="C10" s="51"/>
     </row>
-    <row r="11" spans="2:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
         <v>502</v>
       </c>
       <c r="C11" s="107"/>
       <c r="D11" s="108"/>
     </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
         <v>27</v>
       </c>
@@ -20213,7 +20222,7 @@
       </c>
       <c r="D12" s="109"/>
     </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
         <v>8</v>
       </c>
@@ -20222,7 +20231,7 @@
       </c>
       <c r="D13" s="53"/>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
         <v>30</v>
       </c>
@@ -20231,7 +20240,7 @@
       </c>
       <c r="D14" s="53"/>
     </row>
-    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="s">
         <v>33</v>
       </c>
@@ -20240,7 +20249,7 @@
       </c>
       <c r="D15" s="53"/>
     </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="s">
         <v>35</v>
       </c>
@@ -20249,7 +20258,7 @@
       </c>
       <c r="D16" s="53"/>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="50" t="s">
         <v>34</v>
       </c>
@@ -20258,7 +20267,7 @@
       </c>
       <c r="D17" s="53"/>
     </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
         <v>37</v>
       </c>
@@ -20267,7 +20276,7 @@
       </c>
       <c r="D18" s="53"/>
     </row>
-    <row r="19" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="50" t="s">
         <v>36</v>
       </c>
@@ -20276,7 +20285,7 @@
       </c>
       <c r="D19" s="53"/>
     </row>
-    <row r="20" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="50" t="s">
         <v>29</v>
       </c>
@@ -20293,7 +20302,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="50" t="s">
         <v>737</v>
       </c>
@@ -20304,14 +20313,14 @@
     <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="50"/>
     </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B24" s="47" t="s">
         <v>459</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="97"/>
     </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
         <v>507</v>
       </c>
@@ -20320,7 +20329,7 @@
       </c>
       <c r="D25" s="97"/>
     </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="50" t="s">
         <v>460</v>
       </c>
@@ -20354,25 +20363,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:AP77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="8" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:42" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
         <v>767</v>
       </c>
@@ -20415,7 +20424,7 @@
       <c r="AO1" s="136"/>
       <c r="AP1" s="136"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="136" t="s">
         <v>443</v>
       </c>
@@ -20468,7 +20477,7 @@
       <c r="AO2" s="136"/>
       <c r="AP2" s="136"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>439</v>
       </c>
@@ -20505,10 +20514,10 @@
         <v>775</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>777</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>51</v>
@@ -20592,7 +20601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="121" t="s">
         <v>27</v>
       </c>
@@ -20652,7 +20661,7 @@
       <c r="AO4" s="77"/>
       <c r="AP4" s="77"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="121" t="s">
         <v>27</v>
       </c>
@@ -20712,7 +20721,7 @@
       <c r="AO5" s="77"/>
       <c r="AP5" s="77"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="122" t="s">
         <v>8</v>
       </c>
@@ -20772,7 +20781,7 @@
       <c r="AO6" s="77"/>
       <c r="AP6" s="77"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="123" t="s">
         <v>30</v>
       </c>
@@ -20836,7 +20845,7 @@
       <c r="AO7" s="77"/>
       <c r="AP7" s="77"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="123" t="s">
         <v>30</v>
       </c>
@@ -20902,7 +20911,7 @@
       <c r="AO8" s="77"/>
       <c r="AP8" s="77"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="124" t="s">
         <v>33</v>
       </c>
@@ -20962,7 +20971,7 @@
       <c r="AO9" s="77"/>
       <c r="AP9" s="77"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="124" t="s">
         <v>33</v>
       </c>
@@ -21028,7 +21037,7 @@
       <c r="AO10" s="77"/>
       <c r="AP10" s="77"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="125" t="s">
         <v>35</v>
       </c>
@@ -21090,7 +21099,7 @@
       <c r="AO11" s="77"/>
       <c r="AP11" s="77"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="125" t="s">
         <v>35</v>
       </c>
@@ -21150,7 +21159,7 @@
       <c r="AO12" s="77"/>
       <c r="AP12" s="77"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="125" t="s">
         <v>35</v>
       </c>
@@ -21222,7 +21231,7 @@
         <v>9.6599986587767098E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="125" t="s">
         <v>35</v>
       </c>
@@ -21246,7 +21255,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="126" t="s">
         <v>34</v>
       </c>
@@ -21270,7 +21279,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="126" t="s">
         <v>34</v>
       </c>
@@ -21294,7 +21303,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="126" t="s">
         <v>34</v>
       </c>
@@ -21318,7 +21327,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="127" t="s">
         <v>37</v>
       </c>
@@ -21342,7 +21351,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="127" t="s">
         <v>37</v>
       </c>
@@ -21366,7 +21375,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="127" t="s">
         <v>37</v>
       </c>
@@ -21390,7 +21399,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="127" t="s">
         <v>37</v>
       </c>
@@ -21414,7 +21423,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="127" t="s">
         <v>37</v>
       </c>
@@ -21438,7 +21447,7 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="128" t="s">
         <v>36</v>
       </c>
@@ -21462,7 +21471,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="128" t="s">
         <v>36</v>
       </c>
@@ -21486,7 +21495,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="129" t="s">
         <v>29</v>
       </c>
@@ -21510,7 +21519,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="130" t="s">
         <v>28</v>
       </c>
@@ -21534,7 +21543,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="130" t="s">
         <v>28</v>
       </c>
@@ -21558,7 +21567,7 @@
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="130" t="s">
         <v>28</v>
       </c>
@@ -21582,7 +21591,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="130" t="s">
         <v>28</v>
       </c>
@@ -21605,13 +21614,13 @@
       </c>
       <c r="H29" s="28"/>
     </row>
-    <row r="32" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:42" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:42" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="131" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" s="136" t="s">
         <v>443</v>
       </c>
@@ -21664,7 +21673,7 @@
       <c r="AO34" s="136"/>
       <c r="AP34" s="136"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>439</v>
       </c>
@@ -21701,10 +21710,10 @@
         <v>775</v>
       </c>
       <c r="N35" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="O35" s="11" t="s">
         <v>776</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>777</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>51</v>
@@ -21788,7 +21797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" s="121" t="s">
         <v>27</v>
       </c>
@@ -21848,7 +21857,7 @@
       <c r="AO36" s="77"/>
       <c r="AP36" s="77"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" s="121" t="s">
         <v>27</v>
       </c>
@@ -21908,7 +21917,7 @@
       <c r="AO37" s="77"/>
       <c r="AP37" s="77"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" s="122" t="s">
         <v>8</v>
       </c>
@@ -21968,7 +21977,7 @@
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" s="123" t="s">
         <v>30</v>
       </c>
@@ -22034,7 +22043,7 @@
       <c r="AO39" s="77"/>
       <c r="AP39" s="77"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" s="123" t="s">
         <v>30</v>
       </c>
@@ -22102,7 +22111,7 @@
       <c r="AO40" s="77"/>
       <c r="AP40" s="77"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" s="124" t="s">
         <v>33</v>
       </c>
@@ -22166,7 +22175,7 @@
       <c r="AO41" s="77"/>
       <c r="AP41" s="77"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" s="124" t="s">
         <v>33</v>
       </c>
@@ -22234,7 +22243,7 @@
       <c r="AO42" s="77"/>
       <c r="AP42" s="77"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" s="125" t="s">
         <v>35</v>
       </c>
@@ -22298,7 +22307,7 @@
       <c r="AO43" s="77"/>
       <c r="AP43" s="77"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" s="125" t="s">
         <v>35</v>
       </c>
@@ -22358,7 +22367,7 @@
       <c r="AO44" s="77"/>
       <c r="AP44" s="77"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" s="125" t="s">
         <v>35</v>
       </c>
@@ -22432,7 +22441,7 @@
         <v>7.8570083786213565E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" s="125" t="s">
         <v>35</v>
       </c>
@@ -22456,7 +22465,7 @@
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" s="126" t="s">
         <v>34</v>
       </c>
@@ -22480,7 +22489,7 @@
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" s="126" t="s">
         <v>34</v>
       </c>
@@ -22504,7 +22513,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="126" t="s">
         <v>34</v>
       </c>
@@ -22528,7 +22537,7 @@
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="127" t="s">
         <v>37</v>
       </c>
@@ -22552,7 +22561,7 @@
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="127" t="s">
         <v>37</v>
       </c>
@@ -22575,7 +22584,7 @@
       </c>
       <c r="G51" s="28"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="127" t="s">
         <v>37</v>
       </c>
@@ -22598,7 +22607,7 @@
       </c>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="127" t="s">
         <v>37</v>
       </c>
@@ -22621,7 +22630,7 @@
       </c>
       <c r="G53" s="28"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="127" t="s">
         <v>37</v>
       </c>
@@ -22644,7 +22653,7 @@
       </c>
       <c r="G54" s="28"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="128" t="s">
         <v>36</v>
       </c>
@@ -22667,7 +22676,7 @@
       </c>
       <c r="G55" s="28"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="128" t="s">
         <v>36</v>
       </c>
@@ -22690,7 +22699,7 @@
       </c>
       <c r="G56" s="28"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="129" t="s">
         <v>29</v>
       </c>
@@ -22713,7 +22722,7 @@
       </c>
       <c r="G57" s="28"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="130" t="s">
         <v>28</v>
       </c>
@@ -22736,7 +22745,7 @@
       </c>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="130" t="s">
         <v>28</v>
       </c>
@@ -22759,7 +22768,7 @@
       </c>
       <c r="G59" s="28"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="130" t="s">
         <v>28</v>
       </c>
@@ -22782,7 +22791,7 @@
       </c>
       <c r="G60" s="28"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="130" t="s">
         <v>28</v>
       </c>
@@ -22804,69 +22813,69 @@
         <v>3.2316417665071762E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F3"/>
-  <sortState ref="A4:F66">
+  <autoFilter ref="A3:F3" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F66">
     <sortCondition ref="C1"/>
   </sortState>
   <mergeCells count="9">
@@ -22916,7 +22925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -22926,30 +22935,30 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>462</v>
       </c>
       <c r="B2" s="60"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="59"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>399</v>
       </c>
@@ -22969,7 +22978,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="71" t="s">
         <v>32</v>
       </c>
@@ -22992,7 +23001,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="71" t="s">
         <v>10</v>
       </c>
@@ -23015,7 +23024,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
@@ -23038,7 +23047,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="71" t="s">
         <v>42</v>
       </c>
@@ -23061,7 +23070,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="30"/>
       <c r="B9" s="7"/>
       <c r="C9" s="30"/>
@@ -23073,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="68" t="s">
         <v>395</v>
       </c>
@@ -23085,7 +23094,7 @@
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="71" t="s">
         <v>11</v>
       </c>
@@ -23102,7 +23111,7 @@
         <v>2526882</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="71" t="s">
         <v>13</v>
       </c>
@@ -23119,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="71" t="s">
         <v>14</v>
       </c>
@@ -23136,7 +23145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="71" t="s">
         <v>15</v>
       </c>
@@ -23148,7 +23157,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="71" t="s">
         <v>43</v>
       </c>
@@ -23165,7 +23174,7 @@
         <v>80821740</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
@@ -23182,7 +23191,7 @@
         <v>0.28861313799975108</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>45</v>
       </c>
@@ -23199,7 +23208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -23211,7 +23220,7 @@
         <v>0.51082351109986002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>396</v>
       </c>
@@ -23228,7 +23237,7 @@
         <v>9.6599986587767098E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
@@ -23245,7 +23254,7 @@
         <v>9.1497658921968275E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
@@ -23262,7 +23271,7 @@
         <v>6.4339124596921569E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -23279,27 +23288,27 @@
         <v>1.1822314144684338E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="26" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" s="132" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A27" s="131" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="60" t="s">
         <v>462</v>
       </c>
       <c r="B28" s="60"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="55"/>
       <c r="B29" s="59"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="68" t="s">
         <v>399</v>
       </c>
@@ -23319,7 +23328,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="71" t="s">
         <v>32</v>
       </c>
@@ -23342,7 +23351,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="71" t="s">
         <v>10</v>
       </c>
@@ -23365,7 +23374,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="71" t="s">
         <v>41</v>
       </c>
@@ -23388,7 +23397,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="71" t="s">
         <v>42</v>
       </c>
@@ -23411,7 +23420,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="7"/>
       <c r="C35" s="30"/>
@@ -23423,7 +23432,7 @@
         <v>0.12602657040073065</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="68" t="s">
         <v>395</v>
       </c>
@@ -23435,7 +23444,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="71" t="s">
         <v>11</v>
       </c>
@@ -23452,7 +23461,7 @@
         <v>8602722</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="71" t="s">
         <v>13</v>
       </c>
@@ -23469,7 +23478,7 @@
         <v>0.21255760676678848</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="71" t="s">
         <v>14</v>
       </c>
@@ -23486,7 +23495,7 @@
         <v>0.78744239323321152</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="71" t="s">
         <v>15</v>
       </c>
@@ -23498,7 +23507,7 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="71" t="s">
         <v>43</v>
       </c>
@@ -23515,7 +23524,7 @@
         <v>135364155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>44</v>
       </c>
@@ -23532,7 +23541,7 @@
         <v>0.40769168913291703</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>45</v>
       </c>
@@ -23549,7 +23558,7 @@
         <v>8.0123124175672647E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -23561,7 +23570,7 @@
         <v>0.34700798006680572</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>396</v>
       </c>
@@ -23578,7 +23587,7 @@
         <v>7.8570083786213565E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>16</v>
       </c>
@@ -23595,7 +23604,7 @@
         <v>7.1643781915529989E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>17</v>
       </c>
@@ -23612,7 +23621,7 @@
         <v>6.8408065635987602E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>18</v>
       </c>
@@ -23629,7 +23638,7 @@
         <v>8.1225343592622439E-3</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="30"/>
       <c r="E49" s="30"/>
     </row>
@@ -23640,7 +23649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -23654,45 +23663,45 @@
       <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="19" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="19" width="7.5" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" customWidth="1"/>
+    <col min="21" max="21" width="8.5" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="8.5" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="25" max="25" width="8.5" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" customWidth="1"/>
-    <col min="32" max="32" width="13.28515625" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" customWidth="1"/>
+    <col min="30" max="30" width="8.83203125" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" customWidth="1"/>
+    <col min="34" max="34" width="16.5" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
     <col min="36" max="36" width="29" customWidth="1"/>
-    <col min="37" max="37" width="29.85546875" customWidth="1"/>
-    <col min="38" max="38" width="32.5703125" customWidth="1"/>
+    <col min="37" max="37" width="29.83203125" customWidth="1"/>
+    <col min="38" max="38" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
         <v>46</v>
       </c>
@@ -23739,7 +23748,7 @@
       </c>
       <c r="AC1" s="138"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -23826,7 +23835,7 @@
       <c r="AD2" s="1"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="101" t="s">
         <v>27</v>
       </c>
@@ -23889,7 +23898,7 @@
       <c r="AD3" s="1"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -23952,7 +23961,7 @@
       <c r="AD4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -24017,7 +24026,7 @@
       <c r="AK5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -24080,7 +24089,7 @@
       <c r="AD6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -24143,7 +24152,7 @@
       <c r="AD7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
@@ -24218,7 +24227,7 @@
       <c r="AD8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
@@ -24295,7 +24304,7 @@
       <c r="AD9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
@@ -24378,7 +24387,7 @@
       <c r="AD10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
@@ -24461,7 +24470,7 @@
       <c r="AD11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
@@ -24542,7 +24551,7 @@
       <c r="AD12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -24623,7 +24632,7 @@
       <c r="AD13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -24691,7 +24700,7 @@
       <c r="AG14" s="1"/>
       <c r="AL14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
@@ -24755,7 +24764,7 @@
       <c r="AG15" s="1"/>
       <c r="AL15" s="1"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
@@ -24823,7 +24832,7 @@
       <c r="AG16" s="1"/>
       <c r="AL16" s="1"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -24889,7 +24898,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -24959,7 +24968,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
@@ -25029,7 +25038,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -25099,7 +25108,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
@@ -25169,7 +25178,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
@@ -25237,7 +25246,7 @@
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>36</v>
       </c>
@@ -25307,7 +25316,7 @@
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
@@ -25379,7 +25388,7 @@
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
@@ -25467,7 +25476,7 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
@@ -25553,7 +25562,7 @@
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
@@ -25641,7 +25650,7 @@
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
@@ -25729,7 +25738,7 @@
       <c r="AK28" s="1"/>
       <c r="AL28" s="1"/>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" s="61" t="s">
         <v>466</v>
       </c>
@@ -25842,16 +25851,16 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="Z31" s="63"/>
       <c r="AA31" s="63"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" s="138" t="s">
         <v>46</v>
       </c>
@@ -25869,7 +25878,7 @@
       <c r="Z32" s="62"/>
       <c r="AA32" s="62"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
@@ -25892,7 +25901,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -25916,7 +25925,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -25940,7 +25949,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>8</v>
       </c>
@@ -25964,7 +25973,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
@@ -25988,7 +25997,7 @@
       </c>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>30</v>
       </c>
@@ -26012,7 +26021,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>33</v>
       </c>
@@ -26035,7 +26044,7 @@
         <v>5.3169029482381795E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>33</v>
       </c>
@@ -26047,7 +26056,7 @@
         <v>221059680.97720662</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>35</v>
       </c>
@@ -26059,7 +26068,7 @@
         <v>133395081.86170274</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>35</v>
       </c>
@@ -26071,7 +26080,7 @@
         <v>58782127.898236185</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>35</v>
       </c>
@@ -26083,7 +26092,7 @@
         <v>13210304.799806459</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>35</v>
       </c>
@@ -26095,7 +26104,7 @@
         <v>98445763.285254627</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>34</v>
       </c>
@@ -26107,7 +26116,7 @@
         <v>276798122.83600003</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
@@ -26120,7 +26129,7 @@
       </c>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>34</v>
       </c>
@@ -26132,7 +26141,7 @@
         <v>529998718.85500002</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>37</v>
       </c>
@@ -26144,7 +26153,7 @@
         <v>185248141.62900001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
@@ -26156,7 +26165,7 @@
         <v>186208174.81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>37</v>
       </c>
@@ -26168,7 +26177,7 @@
         <v>261165071.553</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>37</v>
       </c>
@@ -26180,7 +26189,7 @@
         <v>221984781.51100001</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>37</v>
       </c>
@@ -26192,7 +26201,7 @@
         <v>290628756.80000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>36</v>
       </c>
@@ -26204,7 +26213,7 @@
         <v>57188520.913000003</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>36</v>
       </c>
@@ -26216,7 +26225,7 @@
         <v>165533962.18200001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>29</v>
       </c>
@@ -26228,7 +26237,7 @@
         <v>330342678.48199999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>28</v>
       </c>
@@ -26240,7 +26249,7 @@
         <v>109762439.13983899</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>28</v>
       </c>
@@ -26252,7 +26261,7 @@
         <v>264234643.18351853</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>28</v>
       </c>
@@ -26264,7 +26273,7 @@
         <v>299053485.45205092</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>28</v>
       </c>
@@ -26276,7 +26285,7 @@
         <v>75962949.638591543</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="61" t="s">
         <v>725</v>
       </c>
@@ -26289,7 +26298,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="7">
@@ -26336,7 +26345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -26346,15 +26355,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="140" t="s">
         <v>47</v>
       </c>
@@ -26362,7 +26371,7 @@
       <c r="C1" s="140"/>
       <c r="D1" s="140"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -26376,7 +26385,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
@@ -26390,7 +26399,7 @@
         <v>9698</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
@@ -26404,7 +26413,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>41</v>
       </c>
@@ -26418,7 +26427,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
@@ -26432,7 +26441,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -26446,7 +26455,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>44</v>
       </c>
@@ -26460,7 +26469,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>45</v>
       </c>
@@ -26474,7 +26483,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="21" t="s">
         <v>371</v>
@@ -26488,7 +26497,7 @@
         <v>12802</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="21" t="s">
         <v>372</v>
@@ -26502,13 +26511,13 @@
         <v>12802000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="140" t="s">
         <v>50</v>
       </c>
@@ -26516,7 +26525,7 @@
       <c r="C13" s="140"/>
       <c r="D13" s="140"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
@@ -26530,7 +26539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>51</v>
       </c>
@@ -26544,7 +26553,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="25" t="s">
         <v>371</v>
@@ -26558,7 +26567,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
         <v>372</v>
       </c>
@@ -26582,7 +26591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
@@ -26592,20 +26601,20 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
         <v>476</v>
       </c>
@@ -26625,7 +26634,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>56</v>
       </c>
@@ -26654,7 +26663,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>133</v>
       </c>
@@ -26680,7 +26689,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>112</v>
       </c>
@@ -26709,7 +26718,7 @@
         <v>162436</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>133</v>
       </c>
@@ -26735,7 +26744,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>133</v>
       </c>
